--- a/input/raw_data/final_report/data_extraction_case_report_end.xlsx
+++ b/input/raw_data/final_report/data_extraction_case_report_end.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/data_extraction/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jackgedge/Projects/msc_dissertation/iifo_motivation/input/raw_data/final_report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0640475E-71D9-1B45-9E72-550D5F7F6856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53ED32A3-23BC-A245-AE8F-7671FEC877C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24440" xr2:uid="{75954437-E4AF-7C43-AD2A-639C66837574}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6796" uniqueCount="759">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7226" uniqueCount="761">
   <si>
     <t>Study_ID</t>
   </si>
@@ -2321,6 +2321,12 @@
   </si>
   <si>
     <t>"sharp foreign bodies, including razor blades and needles"</t>
+  </si>
+  <si>
+    <t>Outcome_Intervention_Other</t>
+  </si>
+  <si>
+    <t>Outcome_Injury_Other</t>
   </si>
 </sst>
 </file>
@@ -3198,11 +3204,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF37846A-8CBF-AA40-A2E7-D02F4D03EEE3}">
-  <dimension ref="A1:AI215"/>
+  <dimension ref="A1:AK215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD154" sqref="AD154"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AH215" sqref="AH215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3224,12 +3230,14 @@
     <col min="24" max="24" width="3.6640625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="3.6640625" customWidth="1"/>
     <col min="26" max="26" width="21.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="33" width="3.6640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="18.83203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="32" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="3.6640625" customWidth="1"/>
+    <col min="35" max="35" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" ht="197" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:37" ht="197" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3327,16 +3335,22 @@
         <v>15</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>760</v>
+      </c>
+      <c r="AI1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AJ1" t="s">
         <v>228</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AK1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -3436,11 +3450,17 @@
       <c r="AG2" t="s">
         <v>20</v>
       </c>
+      <c r="AH2" t="s">
+        <v>20</v>
+      </c>
       <c r="AI2" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>3</v>
       </c>
@@ -3537,11 +3557,17 @@
       <c r="AG3" t="s">
         <v>20</v>
       </c>
+      <c r="AH3" t="s">
+        <v>20</v>
+      </c>
       <c r="AI3" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3638,11 +3664,17 @@
       <c r="AG4" t="s">
         <v>20</v>
       </c>
+      <c r="AH4" t="s">
+        <v>20</v>
+      </c>
       <c r="AI4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3739,11 +3771,17 @@
       <c r="AG5" t="s">
         <v>20</v>
       </c>
+      <c r="AH5" t="s">
+        <v>20</v>
+      </c>
       <c r="AI5" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -3840,11 +3878,17 @@
       <c r="AG6" t="s">
         <v>20</v>
       </c>
+      <c r="AH6" t="s">
+        <v>20</v>
+      </c>
       <c r="AI6" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3941,11 +3985,17 @@
       <c r="AG7" t="s">
         <v>20</v>
       </c>
+      <c r="AH7" t="s">
+        <v>20</v>
+      </c>
       <c r="AI7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3</v>
       </c>
@@ -4045,11 +4095,17 @@
       <c r="AG8" t="s">
         <v>20</v>
       </c>
+      <c r="AH8" t="s">
+        <v>20</v>
+      </c>
       <c r="AI8" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>3</v>
       </c>
@@ -4144,16 +4200,22 @@
         <v>20</v>
       </c>
       <c r="AG9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ9" t="s">
         <v>230</v>
       </c>
-      <c r="AI9" t="s">
+      <c r="AK9" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4248,16 +4310,22 @@
         <v>20</v>
       </c>
       <c r="AG10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ10" t="s">
         <v>231</v>
       </c>
-      <c r="AI10" t="s">
+      <c r="AK10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>3</v>
       </c>
@@ -4357,11 +4425,17 @@
       <c r="AG11" t="s">
         <v>20</v>
       </c>
+      <c r="AH11" t="s">
+        <v>20</v>
+      </c>
       <c r="AI11" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>3</v>
       </c>
@@ -4461,11 +4535,17 @@
       <c r="AG12" t="s">
         <v>20</v>
       </c>
+      <c r="AH12" t="s">
+        <v>20</v>
+      </c>
       <c r="AI12" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>3</v>
       </c>
@@ -4563,16 +4643,22 @@
         <v>19</v>
       </c>
       <c r="AG13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ13" t="s">
         <v>232</v>
       </c>
-      <c r="AI13" t="s">
+      <c r="AK13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>3</v>
       </c>
@@ -4672,11 +4758,17 @@
       <c r="AG14" t="s">
         <v>20</v>
       </c>
+      <c r="AH14" t="s">
+        <v>20</v>
+      </c>
       <c r="AI14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK14" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -4776,11 +4868,17 @@
       <c r="AG15" t="s">
         <v>20</v>
       </c>
+      <c r="AH15" t="s">
+        <v>20</v>
+      </c>
       <c r="AI15" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK15" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>3</v>
       </c>
@@ -4877,11 +4975,17 @@
       <c r="AG16" t="s">
         <v>20</v>
       </c>
+      <c r="AH16" t="s">
+        <v>20</v>
+      </c>
       <c r="AI16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK16" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>3</v>
       </c>
@@ -4978,11 +5082,17 @@
       <c r="AG17" t="s">
         <v>20</v>
       </c>
+      <c r="AH17" t="s">
+        <v>20</v>
+      </c>
       <c r="AI17" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK17" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>3</v>
       </c>
@@ -5082,11 +5192,17 @@
       <c r="AG18" t="s">
         <v>20</v>
       </c>
+      <c r="AH18" t="s">
+        <v>20</v>
+      </c>
       <c r="AI18" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK18" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>3</v>
       </c>
@@ -5183,11 +5299,17 @@
       <c r="AG19" t="s">
         <v>20</v>
       </c>
+      <c r="AH19" t="s">
+        <v>20</v>
+      </c>
       <c r="AI19" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK19" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>3</v>
       </c>
@@ -5287,11 +5409,17 @@
       <c r="AG20" t="s">
         <v>19</v>
       </c>
+      <c r="AH20" t="s">
+        <v>19</v>
+      </c>
       <c r="AI20" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>39</v>
       </c>
@@ -5392,13 +5520,19 @@
         <v>21</v>
       </c>
       <c r="AH21" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ21" t="s">
         <v>233</v>
       </c>
-      <c r="AI21" t="s">
+      <c r="AK21" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>51</v>
       </c>
@@ -5495,8 +5629,14 @@
       <c r="AG22" t="s">
         <v>20</v>
       </c>
+      <c r="AH22" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>51</v>
       </c>
@@ -5593,8 +5733,14 @@
       <c r="AG23" t="s">
         <v>20</v>
       </c>
+      <c r="AH23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>51</v>
       </c>
@@ -5691,8 +5837,14 @@
       <c r="AG24" t="s">
         <v>20</v>
       </c>
+      <c r="AH24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>51</v>
       </c>
@@ -5789,8 +5941,14 @@
       <c r="AG25" t="s">
         <v>20</v>
       </c>
+      <c r="AH25" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>51</v>
       </c>
@@ -5887,8 +6045,14 @@
       <c r="AG26" t="s">
         <v>20</v>
       </c>
+      <c r="AH26" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>54</v>
       </c>
@@ -5985,8 +6149,14 @@
       <c r="AG27" t="s">
         <v>20</v>
       </c>
+      <c r="AH27" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>60</v>
       </c>
@@ -6086,11 +6256,17 @@
       <c r="AG28" t="s">
         <v>20</v>
       </c>
+      <c r="AH28" t="s">
+        <v>20</v>
+      </c>
       <c r="AI28" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>61</v>
       </c>
@@ -6188,13 +6364,19 @@
         <v>20</v>
       </c>
       <c r="AG29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ29" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>85</v>
       </c>
@@ -6292,13 +6474,19 @@
         <v>21</v>
       </c>
       <c r="AG30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ30" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>92</v>
       </c>
@@ -6398,11 +6586,17 @@
       <c r="AG31" t="s">
         <v>20</v>
       </c>
+      <c r="AH31" t="s">
+        <v>20</v>
+      </c>
       <c r="AI31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK31" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>99</v>
       </c>
@@ -6500,13 +6694,19 @@
         <v>20</v>
       </c>
       <c r="AG32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ32" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>101</v>
       </c>
@@ -6606,11 +6806,17 @@
       <c r="AG33" t="s">
         <v>19</v>
       </c>
+      <c r="AH33" t="s">
+        <v>19</v>
+      </c>
       <c r="AI33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK33" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>101</v>
       </c>
@@ -6710,11 +6916,17 @@
       <c r="AG34" t="s">
         <v>19</v>
       </c>
+      <c r="AH34" t="s">
+        <v>19</v>
+      </c>
       <c r="AI34" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK34" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>101</v>
       </c>
@@ -6814,8 +7026,14 @@
       <c r="AG35" t="s">
         <v>19</v>
       </c>
+      <c r="AH35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>101</v>
       </c>
@@ -6912,11 +7130,17 @@
       <c r="AG36" t="s">
         <v>19</v>
       </c>
+      <c r="AH36" t="s">
+        <v>19</v>
+      </c>
       <c r="AI36" t="s">
+        <v>19</v>
+      </c>
+      <c r="AK36" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>101</v>
       </c>
@@ -7013,8 +7237,14 @@
       <c r="AG37" t="s">
         <v>19</v>
       </c>
+      <c r="AH37" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>113</v>
       </c>
@@ -7112,16 +7342,22 @@
         <v>20</v>
       </c>
       <c r="AG38" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>234</v>
       </c>
-      <c r="AI38" t="s">
+      <c r="AK38" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>138</v>
       </c>
@@ -7218,11 +7454,17 @@
       <c r="AG39" t="s">
         <v>20</v>
       </c>
+      <c r="AH39" t="s">
+        <v>20</v>
+      </c>
       <c r="AI39" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK39" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>148</v>
       </c>
@@ -7320,16 +7562,22 @@
         <v>20</v>
       </c>
       <c r="AG40" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ40" t="s">
         <v>235</v>
       </c>
-      <c r="AI40" t="s">
+      <c r="AK40" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>168</v>
       </c>
@@ -7427,13 +7675,19 @@
         <v>20</v>
       </c>
       <c r="AG41" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>171</v>
       </c>
@@ -7534,10 +7788,16 @@
         <v>20</v>
       </c>
       <c r="AH42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ42" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>172</v>
       </c>
@@ -7637,11 +7897,17 @@
       <c r="AG43" t="s">
         <v>20</v>
       </c>
+      <c r="AH43" t="s">
+        <v>20</v>
+      </c>
       <c r="AI43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK43" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>175</v>
       </c>
@@ -7741,11 +8007,17 @@
       <c r="AG44" t="s">
         <v>20</v>
       </c>
+      <c r="AH44" t="s">
+        <v>20</v>
+      </c>
       <c r="AI44" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK44" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>175</v>
       </c>
@@ -7845,11 +8117,17 @@
       <c r="AG45" t="s">
         <v>20</v>
       </c>
+      <c r="AH45" t="s">
+        <v>20</v>
+      </c>
       <c r="AI45" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK45" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>182</v>
       </c>
@@ -7949,11 +8227,17 @@
       <c r="AG46" t="s">
         <v>20</v>
       </c>
+      <c r="AH46" t="s">
+        <v>20</v>
+      </c>
       <c r="AI46" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK46" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>182</v>
       </c>
@@ -8053,11 +8337,17 @@
       <c r="AG47" t="s">
         <v>20</v>
       </c>
+      <c r="AH47" t="s">
+        <v>20</v>
+      </c>
       <c r="AI47" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK47" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>195</v>
       </c>
@@ -8157,8 +8447,14 @@
       <c r="AG48" t="s">
         <v>20</v>
       </c>
+      <c r="AH48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>214</v>
       </c>
@@ -8256,16 +8552,22 @@
         <v>20</v>
       </c>
       <c r="AG49" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH49" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ49" t="s">
         <v>237</v>
       </c>
-      <c r="AI49" t="s">
+      <c r="AK49" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>217</v>
       </c>
@@ -8365,11 +8667,17 @@
       <c r="AG50" t="s">
         <v>20</v>
       </c>
+      <c r="AH50" t="s">
+        <v>20</v>
+      </c>
       <c r="AI50" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK50" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>219</v>
       </c>
@@ -8469,11 +8777,17 @@
       <c r="AG51" t="s">
         <v>20</v>
       </c>
+      <c r="AH51" t="s">
+        <v>20</v>
+      </c>
       <c r="AI51" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK51" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>226</v>
       </c>
@@ -8573,11 +8887,17 @@
       <c r="AG52" t="s">
         <v>20</v>
       </c>
+      <c r="AH52" t="s">
+        <v>20</v>
+      </c>
       <c r="AI52" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK52" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>231</v>
       </c>
@@ -8677,11 +8997,17 @@
       <c r="AG53" t="s">
         <v>20</v>
       </c>
+      <c r="AH53" t="s">
+        <v>20</v>
+      </c>
       <c r="AI53" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK53" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>238</v>
       </c>
@@ -8781,11 +9107,17 @@
       <c r="AG54" t="s">
         <v>20</v>
       </c>
+      <c r="AH54" t="s">
+        <v>20</v>
+      </c>
       <c r="AI54" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK54" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>260</v>
       </c>
@@ -8885,11 +9217,17 @@
       <c r="AG55" t="s">
         <v>20</v>
       </c>
+      <c r="AH55" t="s">
+        <v>20</v>
+      </c>
       <c r="AI55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK55" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>261</v>
       </c>
@@ -8987,16 +9325,22 @@
         <v>20</v>
       </c>
       <c r="AG56" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ56" t="s">
         <v>239</v>
       </c>
-      <c r="AI56" t="s">
+      <c r="AK56" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>273</v>
       </c>
@@ -9094,16 +9438,22 @@
         <v>20</v>
       </c>
       <c r="AG57" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ57" t="s">
         <v>240</v>
       </c>
-      <c r="AI57" t="s">
+      <c r="AK57" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>274</v>
       </c>
@@ -9203,11 +9553,17 @@
       <c r="AG58" t="s">
         <v>20</v>
       </c>
+      <c r="AH58" t="s">
+        <v>20</v>
+      </c>
       <c r="AI58" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK58" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>278</v>
       </c>
@@ -9307,11 +9663,17 @@
       <c r="AG59" t="s">
         <v>20</v>
       </c>
+      <c r="AH59" t="s">
+        <v>20</v>
+      </c>
       <c r="AI59" t="s">
+        <v>20</v>
+      </c>
+      <c r="AK59" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>292</v>
       </c>
@@ -9411,8 +9773,14 @@
       <c r="AG60" t="s">
         <v>20</v>
       </c>
+      <c r="AH60" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>300</v>
       </c>
@@ -9510,13 +9878,19 @@
         <v>20</v>
       </c>
       <c r="AG61" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH61" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ61" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>311</v>
       </c>
@@ -9617,10 +9991,16 @@
         <v>20</v>
       </c>
       <c r="AH62" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ62" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>314</v>
       </c>
@@ -9721,10 +10101,16 @@
         <v>20</v>
       </c>
       <c r="AH63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ63" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>319</v>
       </c>
@@ -9824,8 +10210,14 @@
       <c r="AG64" t="s">
         <v>20</v>
       </c>
+      <c r="AH64" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="65" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>322</v>
       </c>
@@ -9923,13 +10315,19 @@
         <v>21</v>
       </c>
       <c r="AG65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ65" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="66" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>327</v>
       </c>
@@ -10027,13 +10425,19 @@
         <v>20</v>
       </c>
       <c r="AG66" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ66" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="67" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>328</v>
       </c>
@@ -10133,8 +10537,14 @@
       <c r="AG67" t="s">
         <v>20</v>
       </c>
+      <c r="AH67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="68" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>333</v>
       </c>
@@ -10235,10 +10645,16 @@
         <v>20</v>
       </c>
       <c r="AH68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ68" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="69" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>345</v>
       </c>
@@ -10338,8 +10754,14 @@
       <c r="AG69" t="s">
         <v>20</v>
       </c>
+      <c r="AH69" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="70" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>345</v>
       </c>
@@ -10439,8 +10861,14 @@
       <c r="AG70" t="s">
         <v>20</v>
       </c>
+      <c r="AH70" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="71" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>345</v>
       </c>
@@ -10537,8 +10965,14 @@
       <c r="AG71" t="s">
         <v>20</v>
       </c>
+      <c r="AH71" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="72" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>348</v>
       </c>
@@ -10638,8 +11072,14 @@
       <c r="AG72" t="s">
         <v>20</v>
       </c>
+      <c r="AH72" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="73" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>349</v>
       </c>
@@ -10737,13 +11177,19 @@
         <v>20</v>
       </c>
       <c r="AG73" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH73" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ73" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="74" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>353</v>
       </c>
@@ -10844,10 +11290,16 @@
         <v>20</v>
       </c>
       <c r="AH74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ74" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="75" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>356</v>
       </c>
@@ -10947,8 +11399,14 @@
       <c r="AG75" t="s">
         <v>20</v>
       </c>
+      <c r="AH75" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="76" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>359</v>
       </c>
@@ -11049,10 +11507,16 @@
         <v>20</v>
       </c>
       <c r="AH76" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ76" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>360</v>
       </c>
@@ -11150,13 +11614,19 @@
         <v>20</v>
       </c>
       <c r="AG77" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ77" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="78" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>369</v>
       </c>
@@ -11254,13 +11724,19 @@
         <v>20</v>
       </c>
       <c r="AG78" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH78" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ78" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="79" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>370</v>
       </c>
@@ -11358,13 +11834,19 @@
         <v>20</v>
       </c>
       <c r="AG79" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH79" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ79" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="80" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>373</v>
       </c>
@@ -11462,13 +11944,19 @@
         <v>20</v>
       </c>
       <c r="AG80" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH80" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ80" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>377</v>
       </c>
@@ -11565,8 +12053,14 @@
       <c r="AG81" t="s">
         <v>20</v>
       </c>
+      <c r="AH81" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>377</v>
       </c>
@@ -11663,8 +12157,14 @@
       <c r="AG82" t="s">
         <v>20</v>
       </c>
+      <c r="AH82" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>377</v>
       </c>
@@ -11761,8 +12261,14 @@
       <c r="AG83" t="s">
         <v>20</v>
       </c>
+      <c r="AH83" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>377</v>
       </c>
@@ -11859,8 +12365,14 @@
       <c r="AG84" t="s">
         <v>20</v>
       </c>
+      <c r="AH84" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>380</v>
       </c>
@@ -11961,10 +12473,16 @@
         <v>21</v>
       </c>
       <c r="AH85" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ85" t="s">
         <v>433</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>382</v>
       </c>
@@ -12061,8 +12579,14 @@
       <c r="AG86" t="s">
         <v>20</v>
       </c>
+      <c r="AH86" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>382</v>
       </c>
@@ -12157,13 +12681,19 @@
         <v>20</v>
       </c>
       <c r="AG87" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH87" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ87" t="s">
         <v>437</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>386</v>
       </c>
@@ -12261,13 +12791,19 @@
         <v>20</v>
       </c>
       <c r="AG88" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH88" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ88" t="s">
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>399</v>
       </c>
@@ -12365,13 +12901,19 @@
         <v>20</v>
       </c>
       <c r="AG89" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH89" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ89" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>402</v>
       </c>
@@ -12472,10 +13014,16 @@
         <v>20</v>
       </c>
       <c r="AH90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ90" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>405</v>
       </c>
@@ -12576,10 +13124,16 @@
         <v>21</v>
       </c>
       <c r="AH91" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ91" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>406</v>
       </c>
@@ -12677,13 +13231,19 @@
         <v>19</v>
       </c>
       <c r="AG92" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH92" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ92" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>409</v>
       </c>
@@ -12781,16 +13341,22 @@
         <v>20</v>
       </c>
       <c r="AG93" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH93" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ93" t="s">
         <v>318</v>
       </c>
-      <c r="AI93" t="s">
+      <c r="AK93" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>414</v>
       </c>
@@ -12890,8 +13456,14 @@
       <c r="AG94" t="s">
         <v>20</v>
       </c>
+      <c r="AH94" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>416</v>
       </c>
@@ -12989,13 +13561,19 @@
         <v>20</v>
       </c>
       <c r="AG95" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH95" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ95" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>421</v>
       </c>
@@ -13095,8 +13673,14 @@
       <c r="AG96" t="s">
         <v>19</v>
       </c>
+      <c r="AH96" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="97" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>421</v>
       </c>
@@ -13194,13 +13778,19 @@
         <v>20</v>
       </c>
       <c r="AG97" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH97" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ97" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="98" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>421</v>
       </c>
@@ -13301,10 +13891,16 @@
         <v>20</v>
       </c>
       <c r="AH98" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ98" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="99" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>421</v>
       </c>
@@ -13402,13 +13998,19 @@
         <v>19</v>
       </c>
       <c r="AG99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH99" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ99" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="100" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>421</v>
       </c>
@@ -13509,10 +14111,16 @@
         <v>19</v>
       </c>
       <c r="AH100" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ100" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="101" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>431</v>
       </c>
@@ -13610,13 +14218,19 @@
         <v>20</v>
       </c>
       <c r="AG101" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH101" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ101" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="102" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>439</v>
       </c>
@@ -13716,8 +14330,14 @@
       <c r="AG102" t="s">
         <v>20</v>
       </c>
+      <c r="AH102" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="103" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>443</v>
       </c>
@@ -13818,10 +14438,16 @@
         <v>20</v>
       </c>
       <c r="AH103" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ103" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="104" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>443</v>
       </c>
@@ -13919,13 +14545,19 @@
         <v>20</v>
       </c>
       <c r="AG104" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH104" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ104" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="105" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>443</v>
       </c>
@@ -14025,8 +14657,14 @@
       <c r="AG105" t="s">
         <v>20</v>
       </c>
+      <c r="AH105" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="106" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>451</v>
       </c>
@@ -14124,13 +14762,19 @@
         <v>20</v>
       </c>
       <c r="AG106" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH106" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ106" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="107" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>456</v>
       </c>
@@ -14231,10 +14875,16 @@
         <v>20</v>
       </c>
       <c r="AH107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ107" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="108" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>460</v>
       </c>
@@ -14335,10 +14985,16 @@
         <v>21</v>
       </c>
       <c r="AH108" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ108" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="109" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>465</v>
       </c>
@@ -14436,13 +15092,19 @@
         <v>21</v>
       </c>
       <c r="AG109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH109" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI109" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ109" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="110" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>465</v>
       </c>
@@ -14543,10 +15205,16 @@
         <v>20</v>
       </c>
       <c r="AH110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI110" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ110" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="111" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>465</v>
       </c>
@@ -14644,13 +15312,19 @@
         <v>21</v>
       </c>
       <c r="AG111" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI111" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ111" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="112" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>465</v>
       </c>
@@ -14748,13 +15422,19 @@
         <v>20</v>
       </c>
       <c r="AG112" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH112" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI112" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ112" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="113" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>465</v>
       </c>
@@ -14852,13 +15532,19 @@
         <v>20</v>
       </c>
       <c r="AG113" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI113" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ113" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="114" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>465</v>
       </c>
@@ -14959,10 +15645,16 @@
         <v>20</v>
       </c>
       <c r="AH114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI114" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ114" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="115" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>465</v>
       </c>
@@ -15060,13 +15752,19 @@
         <v>20</v>
       </c>
       <c r="AG115" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH115" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI115" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ115" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="116" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>471</v>
       </c>
@@ -15164,13 +15862,19 @@
         <v>21</v>
       </c>
       <c r="AG116" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI116" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ116" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="117" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>475</v>
       </c>
@@ -15268,13 +15972,19 @@
         <v>20</v>
       </c>
       <c r="AG117" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI117" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ117" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="118" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>476</v>
       </c>
@@ -15372,13 +16082,19 @@
         <v>20</v>
       </c>
       <c r="AG118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH118" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI118" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ118" t="s">
         <v>404</v>
       </c>
     </row>
-    <row r="119" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>482</v>
       </c>
@@ -15476,13 +16192,19 @@
         <v>21</v>
       </c>
       <c r="AG119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH119" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI119" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ119" t="s">
         <v>408</v>
       </c>
     </row>
-    <row r="120" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>483</v>
       </c>
@@ -15583,10 +16305,16 @@
         <v>20</v>
       </c>
       <c r="AH120" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI120" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ120" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="121" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>484</v>
       </c>
@@ -15684,13 +16412,19 @@
         <v>20</v>
       </c>
       <c r="AG121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH121" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI121" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ121" t="s">
         <v>416</v>
       </c>
     </row>
-    <row r="122" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>485</v>
       </c>
@@ -15791,10 +16525,16 @@
         <v>20</v>
       </c>
       <c r="AH122" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI122" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ122" t="s">
         <v>418</v>
       </c>
     </row>
-    <row r="123" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>495</v>
       </c>
@@ -15891,8 +16631,14 @@
       <c r="AG123" t="s">
         <v>20</v>
       </c>
+      <c r="AH123" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI123" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="124" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>498</v>
       </c>
@@ -15989,8 +16735,14 @@
       <c r="AG124" t="s">
         <v>20</v>
       </c>
+      <c r="AH124" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI124" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="125" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>499</v>
       </c>
@@ -16085,16 +16837,22 @@
         <v>20</v>
       </c>
       <c r="AG125" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH125" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI125" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ125" t="s">
         <v>448</v>
       </c>
-      <c r="AI125" t="s">
+      <c r="AK125" t="s">
         <v>487</v>
       </c>
     </row>
-    <row r="126" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>504</v>
       </c>
@@ -16194,8 +16952,14 @@
       <c r="AG126" t="s">
         <v>19</v>
       </c>
+      <c r="AH126" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI126" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="127" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>504</v>
       </c>
@@ -16293,13 +17057,19 @@
         <v>20</v>
       </c>
       <c r="AG127" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH127" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI127" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ127" t="s">
         <v>453</v>
       </c>
     </row>
-    <row r="128" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:37" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>504</v>
       </c>
@@ -16400,10 +17170,16 @@
         <v>20</v>
       </c>
       <c r="AH128" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI128" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ128" t="s">
         <v>456</v>
       </c>
     </row>
-    <row r="129" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>504</v>
       </c>
@@ -16501,13 +17277,19 @@
         <v>20</v>
       </c>
       <c r="AG129" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH129" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI129" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ129" t="s">
         <v>459</v>
       </c>
     </row>
-    <row r="130" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>504</v>
       </c>
@@ -16607,8 +17389,14 @@
       <c r="AG130" t="s">
         <v>20</v>
       </c>
+      <c r="AH130" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI130" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="131" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>504</v>
       </c>
@@ -16708,8 +17496,14 @@
       <c r="AG131" t="s">
         <v>20</v>
       </c>
+      <c r="AH131" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI131" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="132" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>504</v>
       </c>
@@ -16809,8 +17603,14 @@
       <c r="AG132" t="s">
         <v>19</v>
       </c>
+      <c r="AH132" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI132" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="133" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>504</v>
       </c>
@@ -16910,8 +17710,14 @@
       <c r="AG133" t="s">
         <v>19</v>
       </c>
+      <c r="AH133" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI133" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="134" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>504</v>
       </c>
@@ -17009,13 +17815,19 @@
         <v>20</v>
       </c>
       <c r="AG134" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH134" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI134" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ134" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="135" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>504</v>
       </c>
@@ -17116,10 +17928,16 @@
         <v>20</v>
       </c>
       <c r="AH135" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI135" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ135" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="136" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>507</v>
       </c>
@@ -17219,8 +18037,14 @@
       <c r="AG136" t="s">
         <v>20</v>
       </c>
+      <c r="AH136" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI136" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="137" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>507</v>
       </c>
@@ -17320,8 +18144,14 @@
       <c r="AG137" t="s">
         <v>20</v>
       </c>
+      <c r="AH137" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI137" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="138" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>532</v>
       </c>
@@ -17419,13 +18249,19 @@
         <v>20</v>
       </c>
       <c r="AG138" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH138" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI138" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ138" t="s">
         <v>489</v>
       </c>
     </row>
-    <row r="139" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>535</v>
       </c>
@@ -17526,10 +18362,16 @@
         <v>20</v>
       </c>
       <c r="AH139" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI139" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ139" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="140" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>536</v>
       </c>
@@ -17626,8 +18468,14 @@
       <c r="AG140" t="s">
         <v>20</v>
       </c>
+      <c r="AH140" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI140" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="141" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>536</v>
       </c>
@@ -17727,8 +18575,14 @@
       <c r="AG141" t="s">
         <v>20</v>
       </c>
+      <c r="AH141" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI141" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="142" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>536</v>
       </c>
@@ -17828,8 +18682,14 @@
       <c r="AG142" t="s">
         <v>20</v>
       </c>
+      <c r="AH142" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI142" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="143" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>539</v>
       </c>
@@ -17930,10 +18790,16 @@
         <v>20</v>
       </c>
       <c r="AH143" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI143" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ143" t="s">
         <v>511</v>
       </c>
     </row>
-    <row r="144" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>539</v>
       </c>
@@ -18034,10 +18900,16 @@
         <v>20</v>
       </c>
       <c r="AH144" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI144" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ144" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="145" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>539</v>
       </c>
@@ -18138,10 +19010,16 @@
         <v>20</v>
       </c>
       <c r="AH145" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI145" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ145" t="s">
         <v>515</v>
       </c>
     </row>
-    <row r="146" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>539</v>
       </c>
@@ -18242,10 +19120,16 @@
         <v>20</v>
       </c>
       <c r="AH146" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI146" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ146" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="147" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>539</v>
       </c>
@@ -18346,10 +19230,16 @@
         <v>20</v>
       </c>
       <c r="AH147" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI147" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ147" t="s">
         <v>523</v>
       </c>
     </row>
-    <row r="148" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>539</v>
       </c>
@@ -18450,10 +19340,16 @@
         <v>20</v>
       </c>
       <c r="AH148" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI148" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ148" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="149" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>540</v>
       </c>
@@ -18553,8 +19449,14 @@
       <c r="AG149" t="s">
         <v>20</v>
       </c>
+      <c r="AH149" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI149" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="150" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>540</v>
       </c>
@@ -18655,10 +19557,16 @@
         <v>20</v>
       </c>
       <c r="AH150" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI150" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ150" t="s">
         <v>534</v>
       </c>
     </row>
-    <row r="151" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>540</v>
       </c>
@@ -18759,10 +19667,16 @@
         <v>20</v>
       </c>
       <c r="AH151" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI151" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ151" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="152" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>540</v>
       </c>
@@ -18862,8 +19776,14 @@
       <c r="AG152" t="s">
         <v>20</v>
       </c>
+      <c r="AH152" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI152" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="153" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>540</v>
       </c>
@@ -18964,10 +19884,16 @@
         <v>20</v>
       </c>
       <c r="AH153" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI153" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ153" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="154" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>543</v>
       </c>
@@ -19065,13 +19991,19 @@
         <v>21</v>
       </c>
       <c r="AG154" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH154" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI154" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ154" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="155" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>548</v>
       </c>
@@ -19169,13 +20101,19 @@
         <v>21</v>
       </c>
       <c r="AG155" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH155" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI155" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ155" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="156" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>554</v>
       </c>
@@ -19273,10 +20211,16 @@
         <v>19</v>
       </c>
       <c r="AH156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI156" t="s">
+        <v>19</v>
+      </c>
+      <c r="AJ156" t="s">
         <v>555</v>
       </c>
     </row>
-    <row r="157" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>556</v>
       </c>
@@ -19374,13 +20318,19 @@
         <v>20</v>
       </c>
       <c r="AG157" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH157" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI157" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ157" t="s">
         <v>559</v>
       </c>
     </row>
-    <row r="158" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>558</v>
       </c>
@@ -19478,13 +20428,19 @@
         <v>21</v>
       </c>
       <c r="AG158" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH158" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI158" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ158" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="159" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>559</v>
       </c>
@@ -19582,13 +20538,19 @@
         <v>20</v>
       </c>
       <c r="AG159" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH159" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI159" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ159" t="s">
         <v>566</v>
       </c>
     </row>
-    <row r="160" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>565</v>
       </c>
@@ -19686,13 +20648,19 @@
         <v>20</v>
       </c>
       <c r="AG160" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH160" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI160" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ160" t="s">
         <v>571</v>
       </c>
     </row>
-    <row r="161" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>566</v>
       </c>
@@ -19790,10 +20758,16 @@
         <v>20</v>
       </c>
       <c r="AH161" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI161" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ161" t="s">
         <v>574</v>
       </c>
     </row>
-    <row r="162" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>567</v>
       </c>
@@ -19891,13 +20865,19 @@
         <v>20</v>
       </c>
       <c r="AG162" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH162" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI162" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ162" t="s">
         <v>577</v>
       </c>
     </row>
-    <row r="163" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>568</v>
       </c>
@@ -19995,13 +20975,19 @@
         <v>21</v>
       </c>
       <c r="AG163" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH163" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI163" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ163" t="s">
         <v>582</v>
       </c>
     </row>
-    <row r="164" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>572</v>
       </c>
@@ -20099,13 +21085,19 @@
         <v>20</v>
       </c>
       <c r="AG164" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH164" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI164" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ164" t="s">
         <v>585</v>
       </c>
     </row>
-    <row r="165" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>574</v>
       </c>
@@ -20206,10 +21198,16 @@
         <v>20</v>
       </c>
       <c r="AH165" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI165" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ165" t="s">
         <v>587</v>
       </c>
     </row>
-    <row r="166" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>576</v>
       </c>
@@ -20304,13 +21302,19 @@
         <v>21</v>
       </c>
       <c r="AG166" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH166" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI166" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ166" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="167" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>578</v>
       </c>
@@ -20408,13 +21412,19 @@
         <v>20</v>
       </c>
       <c r="AG167" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH167" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI167" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ167" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="168" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>579</v>
       </c>
@@ -20511,8 +21521,14 @@
       <c r="AG168" t="s">
         <v>20</v>
       </c>
+      <c r="AH168" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI168" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="169" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>582</v>
       </c>
@@ -20613,10 +21629,16 @@
         <v>20</v>
       </c>
       <c r="AH169" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI169" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ169" t="s">
         <v>601</v>
       </c>
     </row>
-    <row r="170" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>583</v>
       </c>
@@ -20713,8 +21735,14 @@
       <c r="AG170" t="s">
         <v>20</v>
       </c>
+      <c r="AH170" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI170" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="171" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>583</v>
       </c>
@@ -20811,8 +21839,14 @@
       <c r="AG171" t="s">
         <v>20</v>
       </c>
+      <c r="AH171" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI171" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="172" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>583</v>
       </c>
@@ -20910,10 +21944,16 @@
         <v>20</v>
       </c>
       <c r="AH172" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI172" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ172" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="173" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>583</v>
       </c>
@@ -21010,8 +22050,14 @@
       <c r="AG173" t="s">
         <v>20</v>
       </c>
+      <c r="AH173" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI173" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="174" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <v>583</v>
       </c>
@@ -21108,8 +22154,14 @@
       <c r="AG174" t="s">
         <v>20</v>
       </c>
+      <c r="AH174" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI174" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="175" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <v>583</v>
       </c>
@@ -21206,8 +22258,14 @@
       <c r="AG175" t="s">
         <v>20</v>
       </c>
+      <c r="AH175" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI175" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="176" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <v>583</v>
       </c>
@@ -21304,8 +22362,14 @@
       <c r="AG176" t="s">
         <v>20</v>
       </c>
+      <c r="AH176" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI176" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="177" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <v>583</v>
       </c>
@@ -21402,8 +22466,14 @@
       <c r="AG177" t="s">
         <v>20</v>
       </c>
+      <c r="AH177" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI177" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="178" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <v>583</v>
       </c>
@@ -21501,10 +22571,16 @@
         <v>20</v>
       </c>
       <c r="AH178" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI178" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ178" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="179" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <v>583</v>
       </c>
@@ -21602,10 +22678,16 @@
         <v>20</v>
       </c>
       <c r="AH179" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI179" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ179" t="s">
         <v>614</v>
       </c>
     </row>
-    <row r="180" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <v>583</v>
       </c>
@@ -21702,8 +22784,14 @@
       <c r="AG180" t="s">
         <v>20</v>
       </c>
+      <c r="AH180" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI180" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="181" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>586</v>
       </c>
@@ -21801,13 +22889,19 @@
         <v>20</v>
       </c>
       <c r="AG181" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH181" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI181" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ181" t="s">
         <v>628</v>
       </c>
     </row>
-    <row r="182" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>589</v>
       </c>
@@ -21908,10 +23002,16 @@
         <v>20</v>
       </c>
       <c r="AH182" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI182" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ182" t="s">
         <v>632</v>
       </c>
     </row>
-    <row r="183" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>592</v>
       </c>
@@ -22011,8 +23111,14 @@
       <c r="AG183" t="s">
         <v>20</v>
       </c>
+      <c r="AH183" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI183" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="184" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>593</v>
       </c>
@@ -22110,13 +23216,19 @@
         <v>20</v>
       </c>
       <c r="AG184" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH184" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI184" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ184" t="s">
         <v>639</v>
       </c>
     </row>
-    <row r="185" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>594</v>
       </c>
@@ -22214,13 +23326,19 @@
         <v>21</v>
       </c>
       <c r="AG185" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH185" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI185" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ185" t="s">
         <v>643</v>
       </c>
     </row>
-    <row r="186" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>597</v>
       </c>
@@ -22318,13 +23436,19 @@
         <v>20</v>
       </c>
       <c r="AG186" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH186" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI186" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ186" t="s">
         <v>646</v>
       </c>
     </row>
-    <row r="187" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>598</v>
       </c>
@@ -22422,13 +23546,19 @@
         <v>20</v>
       </c>
       <c r="AG187" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH187" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI187" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ187" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="188" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>602</v>
       </c>
@@ -22528,8 +23658,14 @@
       <c r="AG188" t="s">
         <v>20</v>
       </c>
+      <c r="AH188" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI188" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="189" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>604</v>
       </c>
@@ -22629,8 +23765,14 @@
       <c r="AG189" t="s">
         <v>20</v>
       </c>
+      <c r="AH189" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI189" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="190" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>610</v>
       </c>
@@ -22730,8 +23872,14 @@
       <c r="AG190" t="s">
         <v>20</v>
       </c>
+      <c r="AH190" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI190" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="191" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>610</v>
       </c>
@@ -22832,10 +23980,16 @@
         <v>20</v>
       </c>
       <c r="AH191" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI191" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ191" t="s">
         <v>661</v>
       </c>
     </row>
-    <row r="192" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>610</v>
       </c>
@@ -22935,8 +24089,14 @@
       <c r="AG192" t="s">
         <v>20</v>
       </c>
+      <c r="AH192" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI192" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="193" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>617</v>
       </c>
@@ -23037,10 +24197,16 @@
         <v>20</v>
       </c>
       <c r="AH193" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI193" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ193" t="s">
         <v>670</v>
       </c>
     </row>
-    <row r="194" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>620</v>
       </c>
@@ -23140,8 +24306,14 @@
       <c r="AG194" t="s">
         <v>20</v>
       </c>
+      <c r="AH194" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI194" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="195" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>621</v>
       </c>
@@ -23241,8 +24413,14 @@
       <c r="AG195" t="s">
         <v>20</v>
       </c>
+      <c r="AH195" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI195" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="196" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>622</v>
       </c>
@@ -23342,8 +24520,14 @@
       <c r="AG196" t="s">
         <v>20</v>
       </c>
+      <c r="AH196" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI196" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="197" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>623</v>
       </c>
@@ -23441,13 +24625,19 @@
         <v>20</v>
       </c>
       <c r="AG197" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH197" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI197" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ197" t="s">
         <v>684</v>
       </c>
     </row>
-    <row r="198" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>625</v>
       </c>
@@ -23545,13 +24735,19 @@
         <v>20</v>
       </c>
       <c r="AG198" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH198" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI198" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ198" t="s">
         <v>688</v>
       </c>
     </row>
-    <row r="199" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>626</v>
       </c>
@@ -23649,13 +24845,19 @@
         <v>20</v>
       </c>
       <c r="AG199" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH199" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI199" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ199" t="s">
         <v>690</v>
       </c>
     </row>
-    <row r="200" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>637</v>
       </c>
@@ -23755,8 +24957,14 @@
       <c r="AG200" t="s">
         <v>20</v>
       </c>
+      <c r="AH200" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI200" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="201" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>640</v>
       </c>
@@ -23856,8 +25064,14 @@
       <c r="AG201" t="s">
         <v>20</v>
       </c>
+      <c r="AH201" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI201" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="202" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>643</v>
       </c>
@@ -23957,8 +25171,14 @@
       <c r="AG202" t="s">
         <v>20</v>
       </c>
+      <c r="AH202" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI202" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="203" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>644</v>
       </c>
@@ -24059,10 +25279,16 @@
         <v>20</v>
       </c>
       <c r="AH203" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI203" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ203" t="s">
         <v>704</v>
       </c>
     </row>
-    <row r="204" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>651</v>
       </c>
@@ -24160,13 +25386,19 @@
         <v>20</v>
       </c>
       <c r="AG204" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH204" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI204" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ204" t="s">
         <v>709</v>
       </c>
     </row>
-    <row r="205" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>652</v>
       </c>
@@ -24266,8 +25498,14 @@
       <c r="AG205" t="s">
         <v>20</v>
       </c>
+      <c r="AH205" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI205" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="206" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>654</v>
       </c>
@@ -24365,13 +25603,19 @@
         <v>20</v>
       </c>
       <c r="AG206" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH206" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI206" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ206" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="207" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>658</v>
       </c>
@@ -24469,13 +25713,19 @@
         <v>20</v>
       </c>
       <c r="AG207" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH207" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI207" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ207" t="s">
         <v>720</v>
       </c>
     </row>
-    <row r="208" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>661</v>
       </c>
@@ -24576,10 +25826,16 @@
         <v>20</v>
       </c>
       <c r="AH208" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI208" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ208" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="209" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>667</v>
       </c>
@@ -24680,10 +25936,16 @@
         <v>20</v>
       </c>
       <c r="AH209" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI209" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ209" t="s">
         <v>725</v>
       </c>
     </row>
-    <row r="210" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>675</v>
       </c>
@@ -24783,8 +26045,14 @@
       <c r="AG210" t="s">
         <v>20</v>
       </c>
+      <c r="AH210" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI210" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="211" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>680</v>
       </c>
@@ -24884,8 +26152,14 @@
       <c r="AG211" t="s">
         <v>20</v>
       </c>
+      <c r="AH211" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI211" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="212" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>683</v>
       </c>
@@ -24983,13 +26257,19 @@
         <v>20</v>
       </c>
       <c r="AG212" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AH212" t="s">
+        <v>21</v>
+      </c>
+      <c r="AI212" t="s">
+        <v>21</v>
+      </c>
+      <c r="AJ212" t="s">
         <v>736</v>
       </c>
     </row>
-    <row r="213" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>684</v>
       </c>
@@ -25089,8 +26369,14 @@
       <c r="AG213" t="s">
         <v>20</v>
       </c>
+      <c r="AH213" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI213" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="214" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>686</v>
       </c>
@@ -25190,8 +26476,14 @@
       <c r="AG214" t="s">
         <v>20</v>
       </c>
+      <c r="AH214" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI214" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="215" spans="1:34" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:36" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>692</v>
       </c>
@@ -25289,6 +26581,12 @@
         <v>20</v>
       </c>
       <c r="AG215" t="s">
+        <v>20</v>
+      </c>
+      <c r="AH215" t="s">
+        <v>20</v>
+      </c>
+      <c r="AI215" t="s">
         <v>20</v>
       </c>
     </row>
